--- a/meiju/美剧排名.xlsx
+++ b/meiju/美剧排名.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -364,1204 +364,1709 @@
           <t>分类</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>更新时间</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>行尸之惧第五季</t>
+          <t>小偷小抢第一季</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>惊悚,丧尸</t>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>亢奋第一季</t>
+          <t>行尸之惧第五季</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>罪案,剧情</t>
+          <t>惊悚,丧尸</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>大小谎言第二季</t>
+          <t>亢奋第一季</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>罪案,喜剧,剧情</t>
+          <t>罪案,剧情</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>德州长子第二季</t>
+          <t>大小谎言第二季</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>西部,剧情</t>
+          <t>罪案,喜剧,剧情</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>玫瑰之名第一季</t>
+          <t>德州长子第二季</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>罪案</t>
+          <t>西部,剧情</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>无限恩典有限公司第一季</t>
+          <t>玫瑰之名第一季</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>罪案</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>死亡医生玛丽第三季</t>
+          <t>无限恩典有限公司第一季</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>罪案,医务,剧情</t>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>神秘法医第二季</t>
+          <t>死亡医生玛丽第三季</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>罪案,医务</t>
+          <t>罪案,医务,剧情</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>美爪屋第三季</t>
+          <t>神秘法医第二季</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>罪案,医务</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>芝加哥故事第二季</t>
+          <t>美爪屋第三季</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>深暗势力第二季</t>
+          <t>芝加哥故事第二季</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>剧情</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>西班牙公主第一季</t>
+          <t>深暗势力第二季</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>历史,剧情</t>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>满月第一季</t>
+          <t>西班牙公主第一季</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>爱情,喜剧</t>
+          <t>历史,剧情</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>杰西卡·琼斯第三季</t>
+          <t>满月第一季</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>罪案,科幻,惊悚,动作,剧情</t>
+          <t>爱情,喜剧</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>权力的堡垒第二季</t>
+          <t>杰西卡·琼斯第三季</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>历史,剧情</t>
+          <t>罪案,科幻,惊悚,动作,剧情</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>女作家与谋杀案第七季</t>
+          <t>权力的堡垒第二季</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>罪案,悬疑,剧情</t>
+          <t>历史,剧情</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>情理法的春天第四季</t>
+          <t>女作家与谋杀案第七季</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>罪案,悬疑,剧情</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>碰撞第一季</t>
+          <t>情理法的春天第四季</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>惊悚,动作,剧情</t>
+          <t>罪案,悬疑,剧情</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>落跑新娘第一季</t>
+          <t>碰撞第一季</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>惊悚,动作,剧情</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>从海底出击第一季</t>
+          <t>落跑新娘第一季</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>战争,历史</t>
+          <t>喜剧,剧情</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>新圣女魔咒第一季</t>
+          <t>从海底出击第一季</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>魔幻,悬疑,剧情</t>
+          <t>战争,历史</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>少年泰坦出击第五季</t>
+          <t>新圣女魔咒第一季</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>动画</t>
+          <t>魔幻,悬疑,剧情</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>妖灵第一季</t>
+          <t>少年泰坦出击第五季</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>科幻,奇幻,剧情</t>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>洛城战警第一季</t>
+          <t>妖灵第一季</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>罪案,喜剧,动作</t>
+          <t>科幻,奇幻,剧情</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>小丑梦摇篮第四季</t>
+          <t>洛城战警第一季</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>罪案,喜剧,动作</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>诡媚海妖第二季</t>
+          <t>小丑梦摇篮第四季</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>奇幻,剧情</t>
+          <t>喜剧,剧情</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>真我人生第二季</t>
+          <t>诡媚海妖第二季</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>奇幻,剧情</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>近亲第一季</t>
+          <t>真我人生第二季</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>惊悚,家庭</t>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>奇幻沼泽第一季</t>
+          <t>近亲第一季</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>喜剧,动画,冒险</t>
+          <t>惊悚,家庭</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>天佑吾王第一季</t>
+          <t>奇幻沼泽第一季</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>喜剧,动画,冒险</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>宵禁第一季</t>
+          <t>天佑吾王第一季</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>罪案,动作,剧情</t>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>女飞贼杰特第一季</t>
+          <t>宵禁第一季</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>罪案,动作</t>
+          <t>罪案,动作,剧情</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>私家侦探第三季</t>
+          <t>女飞贼杰特第一季</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>罪案,动作,剧情</t>
+          <t>罪案,动作</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>艾比酒吧第一季</t>
+          <t>私家侦探第三季</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>罪案,动作,剧情</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>厨艺大师第十季</t>
+          <t>艾比酒吧第一季</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>真人秀</t>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>老无所惧第一季</t>
+          <t>厨艺大师第十季</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>罪案,剧情</t>
+          <t>真人秀</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>警察世家第九季</t>
+          <t>老无所惧第一季</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>罪案,剧情</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>沼泽怪物第一季</t>
+          <t>警察世家第九季</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>惊悚,奇幻</t>
+          <t>罪案,剧情</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>米老鼠2013第五季</t>
+          <t>沼泽怪物第一季</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>喜剧,动画</t>
+          <t>惊悚,奇幻</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>神盾局特工第六季</t>
+          <t>米老鼠2013第五季</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>科幻,动作</t>
+          <t>喜剧,动画</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>神秘天使第二季</t>
+          <t>神盾局特工第六季</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>悬疑,剧情,传记</t>
+          <t>科幻,动作</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>更美好的事第三季</t>
+          <t>神秘天使第二季</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>悬疑,剧情,传记</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>不对等的爱情第二季</t>
+          <t>更美好的事第三季</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>青春,都市,爱情,剧情</t>
+          <t>喜剧,剧情</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>暗中第一季</t>
+          <t>不对等的爱情第二季</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>罪案,剧情</t>
+          <t>青春,都市,爱情,剧情</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>都市故事第一季</t>
+          <t>暗中第一季</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>罪案,剧情</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>福尔摩斯：基本演绎法第七季</t>
+          <t>都市故事第一季</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>罪案,悬疑,剧情</t>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>我是僵尸第五季</t>
+          <t>福尔摩斯：基本演绎法第七季</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>罪案,惊悚,剧情,丧尸</t>
+          <t>罪案,悬疑,剧情</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>南方女王第四季</t>
+          <t>我是僵尸第五季</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>罪案,惊悚,动作,剧情</t>
+          <t>罪案,惊悚,剧情,丧尸</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>三人行第四季</t>
+          <t>南方女王第四季</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>罪案,惊悚,动作,剧情</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>德雷尔一家第四季</t>
+          <t>三人行第四季</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>爱情,喜剧,剧情,传记</t>
+          <t>喜剧,剧情</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>白粉飞第二季</t>
+          <t>德雷尔一家第四季</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>罪案,剧情</t>
+          <t>爱情,喜剧,剧情,传记</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>野兽家族第四季</t>
+          <t>白粉飞第二季</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>罪案,剧情</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>年轻一代第六季</t>
+          <t>野兽家族第四季</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>爱情,喜剧</t>
+          <t>罪案,剧情</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>疯狂教授生物课第二季</t>
+          <t>年轻一代第六季</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>爱情,喜剧</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>生活点滴第四季</t>
+          <t>疯狂教授生物课第二季</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>喜剧</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>三色堇第一季</t>
+          <t>生活点滴第四季</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>罪案,剧情</t>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>亿万第四季</t>
+          <t>三色堇第一季</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>罪案,悬疑,剧情</t>
+          <t>罪案,剧情</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>同事儿一箩筐第一季</t>
+          <t>亿万第四季</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>罪案,悬疑,剧情</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>神探牧师第四季</t>
+          <t>同事儿一箩筐第一季</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>罪案,悬疑,剧情</t>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>氪星第二季</t>
+          <t>神探牧师第四季</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>科幻,动作,剧情,冒险</t>
+          <t>罪案,悬疑,剧情</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>使女的故事第三季</t>
+          <t>氪星第二季</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>科幻,剧情</t>
+          <t>科幻,动作,剧情,冒险</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>姿态第二季</t>
+          <t>使女的故事第三季</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>歌舞,历史,剧情</t>
+          <t>科幻,剧情</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>蔗糖女王第四季</t>
+          <t>姿态第二季</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>歌舞,历史,剧情</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>女子无畏第三季</t>
+          <t>蔗糖女王第四季</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>剧情</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>地球百子第六季</t>
+          <t>女子无畏第三季</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>科幻,悬疑,剧情</t>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>极速前进第三十一季</t>
+          <t>地球百子第六季</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>真人秀</t>
+          <t>科幻,悬疑,剧情</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>成长不容易第二季</t>
+          <t>极速前进第三十一季</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>真人秀</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>处女情缘第五季</t>
+          <t>成长不容易第二季</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>阴阳界第一季</t>
+          <t>处女情缘第五季</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>血腥,科幻,惊悚,悬疑,剧情</t>
+          <t>喜剧,剧情</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>重返人生第一季</t>
+          <t>阴阳界第一季</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>血腥,科幻,惊悚,悬疑,剧情</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>法律与秩序第十五季</t>
+          <t>重返人生第一季</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>罪案,悬疑,剧情</t>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>梅森探案集第一季</t>
+          <t>法律与秩序第十五季</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>罪案,悬疑</t>
+          <t>罪案,悬疑,剧情</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>血宝藏第一季</t>
+          <t>梅森探案集第一季</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>罪案,悬疑,冒险</t>
+          <t>罪案,悬疑</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>来自未来的故事第一季</t>
+          <t>血宝藏第一季</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>科幻</t>
+          <t>罪案,悬疑,冒险</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>难言之爱第一季</t>
+          <t>来自未来的故事第一季</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>科幻</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2019-6-12</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>幻影恶灵第一季</t>
+          <t>难言之爱第一季</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>惊悚</t>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2019-6-12</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>超级怪兽宠物第一季</t>
+          <t>幻影恶灵第一季</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>动画</t>
+          <t>惊悚</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2019-6-12</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>杰克绅士第一季</t>
+          <t>超级怪兽宠物第一季</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>动画</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2019-6-12</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>怪探拉比特第一季</t>
+          <t>杰克绅士第一季</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>悬疑,喜剧</t>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2019-6-12</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>误打误撞第一季</t>
+          <t>怪探拉比特第一季</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>悬疑,喜剧</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2019-6-12</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>指定幸存者第三季</t>
+          <t>误打误撞第一季</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>惊悚,悬疑,动作,剧情</t>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2019-6-11</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>卧底情劫第四季</t>
+          <t>指定幸存者第三季</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>罪案,科幻,剧情</t>
+          <t>惊悚,悬疑,动作,剧情</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2019-6-11</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>朽木第一季</t>
+          <t>卧底情劫第四季</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>西部,罪案,历史,剧情</t>
+          <t>罪案,科幻,剧情</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2019-6-11</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>落跑公主第一季</t>
+          <t>朽木第一季</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>西部,罪案,历史,剧情</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2019-6-10</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>山巅之城第一季</t>
+          <t>落跑公主第一季</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>罪案,惊悚,剧情</t>
+          <t>喜剧,剧情</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2019-6-10</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>百万美元贵妇第一季</t>
+          <t>山巅之城第一季</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>历史</t>
+          <t>罪案,惊悚,剧情</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>相信我第二季</t>
+          <t>百万美元贵妇第一季</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>惊悚,剧情</t>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>印度警探第一季</t>
+          <t>相信我第二季</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>惊悚,剧情</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>战士第一季</t>
+          <t>印度警探第一季</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>罪案</t>
+          <t>喜剧,剧情</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>百分之三第三季</t>
+          <t>战士第一季</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>科幻,惊悚,动作</t>
+          <t>罪案</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>马里布救生队第一季</t>
+          <t>百分之三第三季</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>冒险</t>
+          <t>科幻,惊悚,动作</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>格莫拉第四季</t>
+          <t>马里布救生队第一季</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>罪案,动作,剧情</t>
+          <t>冒险</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>深入黑暗第一季</t>
+          <t>格莫拉第四季</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>惊悚</t>
+          <t>罪案,动作,剧情</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>游戏玩家第一季</t>
+          <t>深入黑暗第一季</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>罪案,悬疑,动作,剧情</t>
+          <t>惊悚</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2019-6-8</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>戴面纱的美人第一季</t>
+          <t>游戏玩家第一季</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>爱情,家庭,剧情</t>
+          <t>罪案,悬疑,动作,剧情</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2019-6-8</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>失联第二季</t>
+          <t>戴面纱的美人第一季</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>爱情,家庭,剧情</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2019-6-8</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>爱的诠释第一季</t>
+          <t>失联第二季</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>爱情,喜剧,剧情</t>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2019-6-8</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>无可救药第一季</t>
+          <t>爱的诠释第一季</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>爱情,喜剧,剧情</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2019-6-8</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>断林镇谜案第四季</t>
+          <t>无可救药第一季</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>悬疑</t>
+          <t>喜剧</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2019-6-8</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>豪门恩怨第二季</t>
+          <t>断林镇谜案第四季</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>罪案,剧情</t>
+          <t>悬疑</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2019-6-8</t>
         </is>
       </c>
     </row>

--- a/meiju/美剧排名.xlsx
+++ b/meiju/美剧排名.xlsx
@@ -373,41 +373,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>小偷小抢第一季</t>
+          <t>重返人生第一季</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>喜剧</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2019-6-17</t>
+          <t>2019-6-18</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>行尸之惧第五季</t>
+          <t>寻女苦旅第一季</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>惊悚,丧尸</t>
+          <t>科幻,惊悚</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2019-6-17</t>
+          <t>2019-6-18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>亢奋第一季</t>
+          <t>豪门恩怨第二季</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -417,121 +417,121 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2019-6-17</t>
+          <t>2019-6-18</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>大小谎言第二季</t>
+          <t>心灵之地第五季</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>罪案,喜剧,剧情</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2019-6-17</t>
+          <t>2019-6-18</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>德州长子第二季</t>
+          <t>新圣女魔咒第一季</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>西部,剧情</t>
+          <t>魔幻,悬疑,剧情</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2019-6-17</t>
+          <t>2019-6-18</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>玫瑰之名第一季</t>
+          <t>誓言第二季</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>罪案</t>
+          <t>罪案,动作,剧情</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2019-6-17</t>
+          <t>2019-6-18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>无限恩典有限公司第一季</t>
+          <t>亢奋第一季</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>罪案,剧情</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2019-6-17</t>
+          <t>2019-6-18</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>死亡医生玛丽第三季</t>
+          <t>西班牙公主第一季</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>罪案,医务,剧情</t>
+          <t>历史,剧情</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2019-6-17</t>
+          <t>2019-6-18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>神秘法医第二季</t>
+          <t>我爱露西第六季</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>罪案,医务</t>
+          <t>歌舞,家庭,喜剧</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2019-6-17</t>
+          <t>2019-6-18</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>美爪屋第三季</t>
+          <t>法律与秩序第十五季</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>罪案,悬疑,剧情</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -543,12 +543,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>芝加哥故事第二季</t>
+          <t>德州长子第二季</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>西部,剧情</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -560,12 +560,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>深暗势力第二季</t>
+          <t>情理法的春天第四季</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>罪案,悬疑,剧情</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -577,12 +577,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>西班牙公主第一季</t>
+          <t>小偷小抢第一季</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>历史,剧情</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -594,12 +594,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>满月第一季</t>
+          <t>杰西卡·琼斯第三季</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>爱情,喜剧</t>
+          <t>罪案,科幻,惊悚,动作,剧情</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -611,12 +611,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>杰西卡·琼斯第三季</t>
+          <t>女子无畏第三季</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>罪案,科幻,惊悚,动作,剧情</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -628,199 +628,199 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>权力的堡垒第二季</t>
+          <t>行尸之惧第五季</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>历史,剧情</t>
+          <t>惊悚,丧尸</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2019-6-16</t>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>女作家与谋杀案第七季</t>
+          <t>玫瑰之名第一季</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>罪案,悬疑,剧情</t>
+          <t>罪案</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2019-6-16</t>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>情理法的春天第四季</t>
+          <t>神秘天使第二季</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>罪案,悬疑,剧情</t>
+          <t>悬疑,剧情,传记</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2019-6-16</t>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>碰撞第一季</t>
+          <t>大小谎言第二季</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>惊悚,动作,剧情</t>
+          <t>罪案,喜剧,剧情</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2019-6-16</t>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>落跑新娘第一季</t>
+          <t>无限恩典有限公司第一季</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2019-6-16</t>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>从海底出击第一季</t>
+          <t>死亡医生玛丽第三季</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>战争,历史</t>
+          <t>罪案,医务,剧情</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2019-6-16</t>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>新圣女魔咒第一季</t>
+          <t>神秘法医第二季</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>魔幻,悬疑,剧情</t>
+          <t>罪案,医务</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2019-6-16</t>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>少年泰坦出击第五季</t>
+          <t>美爪屋第三季</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>动画</t>
+          <t>喜剧</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2019-6-16</t>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>妖灵第一季</t>
+          <t>芝加哥故事第二季</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>科幻,奇幻,剧情</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2019-6-16</t>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>洛城战警第一季</t>
+          <t>深暗势力第二季</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>罪案,喜剧,动作</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2019-6-16</t>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>小丑梦摇篮第四季</t>
+          <t>满月第一季</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>爱情,喜剧</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2019-6-16</t>
+          <t>2019-6-17</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>诡媚海妖第二季</t>
+          <t>权力的堡垒第二季</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>奇幻,剧情</t>
+          <t>历史,剧情</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -832,12 +832,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>真我人生第二季</t>
+          <t>女作家与谋杀案第七季</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>罪案,悬疑,剧情</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -849,12 +849,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>近亲第一季</t>
+          <t>碰撞第一季</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>惊悚,家庭</t>
+          <t>惊悚,动作,剧情</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -866,12 +866,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>奇幻沼泽第一季</t>
+          <t>落跑新娘第一季</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>喜剧,动画,冒险</t>
+          <t>喜剧,剧情</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -883,12 +883,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>天佑吾王第一季</t>
+          <t>从海底出击第一季</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>战争,历史</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -900,12 +900,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>宵禁第一季</t>
+          <t>少年泰坦出击第五季</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>罪案,动作,剧情</t>
+          <t>动画</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -917,165 +917,165 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>女飞贼杰特第一季</t>
+          <t>妖灵第一季</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>罪案,动作</t>
+          <t>科幻,奇幻,剧情</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2019-6-15</t>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>私家侦探第三季</t>
+          <t>洛城战警第一季</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>罪案,动作,剧情</t>
+          <t>罪案,喜剧,动作</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2019-6-15</t>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>艾比酒吧第一季</t>
+          <t>小丑梦摇篮第四季</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>喜剧,剧情</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2019-6-15</t>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>厨艺大师第十季</t>
+          <t>诡媚海妖第二季</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>真人秀</t>
+          <t>奇幻,剧情</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2019-6-15</t>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>老无所惧第一季</t>
+          <t>真我人生第二季</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>罪案,剧情</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2019-6-15</t>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>警察世家第九季</t>
+          <t>近亲第一季</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>罪案,剧情</t>
+          <t>惊悚,家庭</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2019-6-15</t>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>沼泽怪物第一季</t>
+          <t>奇幻沼泽第一季</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>惊悚,奇幻</t>
+          <t>喜剧,动画,冒险</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2019-6-15</t>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>米老鼠2013第五季</t>
+          <t>天佑吾王第一季</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>喜剧,动画</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2019-6-15</t>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>神盾局特工第六季</t>
+          <t>宵禁第一季</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>科幻,动作</t>
+          <t>罪案,动作,剧情</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2019-6-15</t>
+          <t>2019-6-16</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>神秘天使第二季</t>
+          <t>女飞贼杰特第一季</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>悬疑,剧情,传记</t>
+          <t>罪案,动作</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1087,12 +1087,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>更美好的事第三季</t>
+          <t>私家侦探第三季</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>罪案,动作,剧情</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1104,12 +1104,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>不对等的爱情第二季</t>
+          <t>艾比酒吧第一季</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>青春,都市,爱情,剧情</t>
+          <t>喜剧</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1121,12 +1121,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>暗中第一季</t>
+          <t>厨艺大师第十季</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>罪案,剧情</t>
+          <t>真人秀</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1138,126 +1138,126 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>都市故事第一季</t>
+          <t>老无所惧第一季</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>罪案,剧情</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2019-6-14</t>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>福尔摩斯：基本演绎法第七季</t>
+          <t>警察世家第九季</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>罪案,悬疑,剧情</t>
+          <t>罪案,剧情</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2019-6-14</t>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>我是僵尸第五季</t>
+          <t>沼泽怪物第一季</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>罪案,惊悚,剧情,丧尸</t>
+          <t>惊悚,奇幻</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2019-6-14</t>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>南方女王第四季</t>
+          <t>米老鼠2013第五季</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>罪案,惊悚,动作,剧情</t>
+          <t>喜剧,动画</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2019-6-14</t>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>三人行第四季</t>
+          <t>神盾局特工第六季</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>科幻,动作</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2019-6-14</t>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>德雷尔一家第四季</t>
+          <t>更美好的事第三季</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>爱情,喜剧,剧情,传记</t>
+          <t>喜剧,剧情</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2019-6-14</t>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>白粉飞第二季</t>
+          <t>不对等的爱情第二季</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>罪案,剧情</t>
+          <t>青春,都市,爱情,剧情</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2019-6-14</t>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>野兽家族第四季</t>
+          <t>暗中第一季</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1267,19 +1267,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2019-6-14</t>
+          <t>2019-6-15</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>年轻一代第六季</t>
+          <t>都市故事第一季</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>爱情,喜剧</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1291,12 +1291,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>疯狂教授生物课第二季</t>
+          <t>福尔摩斯：基本演绎法第七季</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>罪案,悬疑,剧情</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1308,12 +1308,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>生活点滴第四季</t>
+          <t>我是僵尸第五季</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>罪案,惊悚,剧情,丧尸</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1325,12 +1325,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>三色堇第一季</t>
+          <t>南方女王第四季</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>罪案,剧情</t>
+          <t>罪案,惊悚,动作,剧情</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1342,12 +1342,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>亿万第四季</t>
+          <t>三人行第四季</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>罪案,悬疑,剧情</t>
+          <t>喜剧,剧情</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1359,12 +1359,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>同事儿一箩筐第一季</t>
+          <t>德雷尔一家第四季</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>爱情,喜剧,剧情,传记</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1376,12 +1376,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>神探牧师第四季</t>
+          <t>白粉飞第二季</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>罪案,悬疑,剧情</t>
+          <t>罪案,剧情</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1393,148 +1393,148 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>氪星第二季</t>
+          <t>野兽家族第四季</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>科幻,动作,剧情,冒险</t>
+          <t>罪案,剧情</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2019-6-13</t>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>使女的故事第三季</t>
+          <t>年轻一代第六季</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>科幻,剧情</t>
+          <t>爱情,喜剧</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2019-6-13</t>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>姿态第二季</t>
+          <t>疯狂教授生物课第二季</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>歌舞,历史,剧情</t>
+          <t>喜剧</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2019-6-13</t>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>蔗糖女王第四季</t>
+          <t>生活点滴第四季</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>喜剧</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2019-6-13</t>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>女子无畏第三季</t>
+          <t>三色堇第一季</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>罪案,剧情</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2019-6-13</t>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>地球百子第六季</t>
+          <t>亿万第四季</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>科幻,悬疑,剧情</t>
+          <t>罪案,悬疑,剧情</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2019-6-13</t>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>极速前进第三十一季</t>
+          <t>同事儿一箩筐第一季</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>真人秀</t>
+          <t>喜剧</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2019-6-13</t>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>成长不容易第二季</t>
+          <t>神探牧师第四季</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>罪案,悬疑,剧情</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2019-6-13</t>
+          <t>2019-6-14</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>处女情缘第五季</t>
+          <t>氪星第二季</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>科幻,动作,剧情,冒险</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1546,12 +1546,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>阴阳界第一季</t>
+          <t>使女的故事第三季</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>血腥,科幻,惊悚,悬疑,剧情</t>
+          <t>科幻,剧情</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1563,12 +1563,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>重返人生第一季</t>
+          <t>姿态第二季</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>歌舞,历史,剧情</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>法律与秩序第十五季</t>
+          <t>蔗糖女王第四季</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>罪案,悬疑,剧情</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1597,12 +1597,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>梅森探案集第一季</t>
+          <t>地球百子第六季</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>罪案,悬疑</t>
+          <t>科幻,悬疑,剧情</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1614,12 +1614,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>血宝藏第一季</t>
+          <t>极速前进第三十一季</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>罪案,悬疑,冒险</t>
+          <t>真人秀</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1631,97 +1631,97 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>来自未来的故事第一季</t>
+          <t>成长不容易第二季</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>科幻</t>
+          <t>喜剧</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2019-6-12</t>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>难言之爱第一季</t>
+          <t>处女情缘第五季</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>喜剧,剧情</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2019-6-12</t>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>幻影恶灵第一季</t>
+          <t>阴阳界第一季</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>惊悚</t>
+          <t>血腥,科幻,惊悚,悬疑,剧情</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2019-6-12</t>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>超级怪兽宠物第一季</t>
+          <t>梅森探案集第一季</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>动画</t>
+          <t>罪案,悬疑</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2019-6-12</t>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>杰克绅士第一季</t>
+          <t>血宝藏第一季</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>罪案,悬疑,冒险</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2019-6-12</t>
+          <t>2019-6-13</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>怪探拉比特第一季</t>
+          <t>来自未来的故事第一季</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>悬疑,喜剧</t>
+          <t>科幻</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1733,182 +1733,182 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>误打误撞第一季</t>
+          <t>难言之爱第一季</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2019-6-11</t>
+          <t>2019-6-12</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>指定幸存者第三季</t>
+          <t>幻影恶灵第一季</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>惊悚,悬疑,动作,剧情</t>
+          <t>惊悚</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2019-6-11</t>
+          <t>2019-6-12</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>卧底情劫第四季</t>
+          <t>超级怪兽宠物第一季</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>罪案,科幻,剧情</t>
+          <t>动画</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2019-6-11</t>
+          <t>2019-6-12</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>朽木第一季</t>
+          <t>杰克绅士第一季</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>西部,罪案,历史,剧情</t>
+          <t>剧情</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2019-6-10</t>
+          <t>2019-6-12</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>落跑公主第一季</t>
+          <t>怪探拉比特第一季</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>悬疑,喜剧</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2019-6-10</t>
+          <t>2019-6-12</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>山巅之城第一季</t>
+          <t>误打误撞第一季</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>罪案,惊悚,剧情</t>
+          <t>喜剧</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2019-6-9</t>
+          <t>2019-6-11</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>百万美元贵妇第一季</t>
+          <t>指定幸存者第三季</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>历史</t>
+          <t>惊悚,悬疑,动作,剧情</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2019-6-9</t>
+          <t>2019-6-11</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>相信我第二季</t>
+          <t>卧底情劫第四季</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>惊悚,剧情</t>
+          <t>罪案,科幻,剧情</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2019-6-9</t>
+          <t>2019-6-11</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>印度警探第一季</t>
+          <t>朽木第一季</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>喜剧,剧情</t>
+          <t>西部,罪案,历史,剧情</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2019-6-9</t>
+          <t>2019-6-10</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>战士第一季</t>
+          <t>落跑公主第一季</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>罪案</t>
+          <t>喜剧,剧情</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2019-6-9</t>
+          <t>2019-6-10</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>百分之三第三季</t>
+          <t>山巅之城第一季</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>科幻,惊悚,动作</t>
+          <t>罪案,惊悚,剧情</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1920,12 +1920,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>马里布救生队第一季</t>
+          <t>百万美元贵妇第一季</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>冒险</t>
+          <t>历史</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1937,12 +1937,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>格莫拉第四季</t>
+          <t>相信我第二季</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>罪案,动作,剧情</t>
+          <t>惊悚,剧情</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1954,97 +1954,97 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>深入黑暗第一季</t>
+          <t>印度警探第一季</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>惊悚</t>
+          <t>喜剧,剧情</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2019-6-8</t>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>游戏玩家第一季</t>
+          <t>战士第一季</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>罪案,悬疑,动作,剧情</t>
+          <t>罪案</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2019-6-8</t>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>戴面纱的美人第一季</t>
+          <t>百分之三第三季</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>爱情,家庭,剧情</t>
+          <t>科幻,惊悚,动作</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2019-6-8</t>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>失联第二季</t>
+          <t>马里布救生队第一季</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>剧情</t>
+          <t>冒险</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2019-6-8</t>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>爱的诠释第一季</t>
+          <t>格莫拉第四季</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>爱情,喜剧,剧情</t>
+          <t>罪案,动作,剧情</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2019-6-8</t>
+          <t>2019-6-9</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>无可救药第一季</t>
+          <t>深入黑暗第一季</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>喜剧</t>
+          <t>惊悚</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2056,12 +2056,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>断林镇谜案第四季</t>
+          <t>游戏玩家第一季</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>悬疑</t>
+          <t>罪案,悬疑,动作,剧情</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
